--- a/Soporte/Categorias.xlsx
+++ b/Soporte/Categorias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abelmendiola/Desktop/Escritorio/Devf/ProyectoFinal/Soporte/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EC2ED6-CD53-7D49-A2A2-CEA0895F0B18}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2685F0A9-5EBF-2C4D-B679-D2EEAB3090C3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{2365B091-05C5-D84B-BE08-DA359A096C3F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
   <si>
     <t>albañilería</t>
   </si>
@@ -214,13 +214,106 @@
   </si>
   <si>
     <t>Lamparas </t>
+  </si>
+  <si>
+    <t>Calentadores Solares </t>
+  </si>
+  <si>
+    <t>Instalación de calentadores solares </t>
+  </si>
+  <si>
+    <t>Mantenimiento de calentadores solares </t>
+  </si>
+  <si>
+    <t>Check List sin costo (Revisión del inmueble)*</t>
+  </si>
+  <si>
+    <t>Instalación y Reparación de Plomería (Fontanería) y Drenaje (baños, regaderas, boilers, etc.)</t>
+  </si>
+  <si>
+    <t>Cerrajería</t>
+  </si>
+  <si>
+    <t>Gasolina (quedarse sin gasolina)</t>
+  </si>
+  <si>
+    <t>Batería (falla de batería, pasar corriente)</t>
+  </si>
+  <si>
+    <t>Llantas (inflado o reparación)</t>
+  </si>
+  <si>
+    <t>Revisión general de su Auto</t>
+  </si>
+  <si>
+    <t>Revisión de niveles de líquidos</t>
+  </si>
+  <si>
+    <t>Instalación de estéreos y de GPS</t>
+  </si>
+  <si>
+    <t>Recarga y Revisión de Gas  para Aire Acondicionado de Autos</t>
+  </si>
+  <si>
+    <t>Automotriz</t>
+  </si>
+  <si>
+    <t>Cambio de aceite y afinanción</t>
+  </si>
+  <si>
+    <t>Goteras</t>
+  </si>
+  <si>
+    <t>Humedades, Roturas, Agua y Gas</t>
+  </si>
+  <si>
+    <t>Desatascos, Limpieza de Tuberías</t>
+  </si>
+  <si>
+    <t>Localización de Fugas</t>
+  </si>
+  <si>
+    <t>Reparamos, Grifos, WC, </t>
+  </si>
+  <si>
+    <t>Calderas y Calentadores</t>
+  </si>
+  <si>
+    <t>Abrimos puertas ¡¡Al Instante!!</t>
+  </si>
+  <si>
+    <t>Automóviles y Cajas fuertes</t>
+  </si>
+  <si>
+    <t>Cambiamos Cerraduras</t>
+  </si>
+  <si>
+    <t>Cierres Metálicos</t>
+  </si>
+  <si>
+    <t>Reparaciones e Instalaciones</t>
+  </si>
+  <si>
+    <t>Averías, Apagones, Instalaciones</t>
+  </si>
+  <si>
+    <t>Cambios de Potencia</t>
+  </si>
+  <si>
+    <t>Instaladores Autorizados, Boletines</t>
+  </si>
+  <si>
+    <t>Portero Automáticos – Antenas</t>
+  </si>
+  <si>
+    <t>servicios de desatascos de tuberías, cambio de grifos y cisternas, rotura de tuberías y fugas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -246,6 +339,30 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF1051A5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF656565"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -267,11 +384,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,341 +707,494 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0D6181-D9C8-8B43-9BC4-1BBE24D47F24}">
-  <dimension ref="B4:D78"/>
+  <dimension ref="B2:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:3" ht="25" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="2" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="25" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="25" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
+    <row r="10" spans="2:3" ht="25" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="25" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
+    <row r="11" spans="2:3" ht="25" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="25" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
+    <row r="12" spans="2:3" ht="25" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="25" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
+    <row r="13" spans="2:3" ht="25" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="25" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
+    <row r="14" spans="2:3" ht="25" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="25" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+    <row r="15" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C15" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="25" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="C13" s="2" t="s">
+    <row r="18" spans="2:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
+      <c r="G18" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
+      <c r="G19" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+      <c r="G20" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
+      <c r="G21" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="C18" s="2" t="s">
+      <c r="G22" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="25" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="2" t="s">
+    <row r="24" spans="2:7" ht="25" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" ht="25" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" t="s">
+      <c r="G24" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="25" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="25" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" t="s">
+    <row r="26" spans="2:7" ht="25" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="25" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" t="s">
+    <row r="27" spans="2:7" ht="25" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="25" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
+    <row r="28" spans="2:7" ht="19" x14ac:dyDescent="0.2">
+      <c r="C28" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="25" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="D27" s="2" t="s">
+      <c r="G31" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="D32" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D28" t="s">
+      <c r="G32" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D29" t="s">
+      <c r="G33" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D30" t="s">
+      <c r="G34" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
+      <c r="G35" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D32" t="s">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D35" t="s">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="C36" s="2" t="s">
+    <row r="41" spans="2:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="C39" s="2" t="s">
+    <row r="44" spans="2:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="C40" s="2" t="s">
+    <row r="45" spans="2:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="C45" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="C41" s="2" t="s">
+    <row r="46" spans="2:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="C46" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B43" s="3" t="s">
+    <row r="48" spans="2:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="C44" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="C45" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="C46" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B48" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="C50" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="C52" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="B54" s="3" t="s">
-        <v>42</v>
+      <c r="C54" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="C55" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="C56" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="C57" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="C58" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="B59" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="B60" s="3" t="s">
-        <v>47</v>
+      <c r="C60" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="C61" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="C62" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="C63" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="B65" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C64" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="C66" s="2" t="s">
-        <v>52</v>
+      <c r="B66" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="C67" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="C68" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="C69" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="C70" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="2:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="B72" s="3" t="s">
-        <v>57</v>
+      <c r="C72" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="C73" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="C74" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="C75" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="C76" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="B78" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C79" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C80" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C81" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C82" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="2:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="C77" s="2" t="s">
+    <row r="83" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C83" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="2:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="C78" s="2" t="s">
+    <row r="84" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C84" s="2" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="B86" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C87" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C88" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="C93" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="C97" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="C98" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="C99" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="C100" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="C101" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="C102" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="C103" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="C104" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="C105" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
